--- a/data/temporary_materials/mapping nr vs nusl resourceType.xlsx
+++ b/data/temporary_materials/mapping nr vs nusl resourceType.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\moon.ntkcz.cz\petka\NUŠL\SW\INVENIO 3\taxonomie\současné_hotové\mapování různých položek za účelem migrace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cernohlp\Documents\GitHub\nr-taxonomies\data\temporary_materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -581,7 +581,7 @@
     <t>Heritage procedure</t>
   </si>
   <si>
-    <t>resourceType mapping</t>
+    <t>resourceType mapping; z pole 980__a</t>
   </si>
 </sst>
 </file>
@@ -959,10 +959,10 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
